--- a/biology/Biochimie/Séquençage_des_protéines_par_spectrométrie_de_masse/Séquençage_des_protéines_par_spectrométrie_de_masse.xlsx
+++ b/biology/Biochimie/Séquençage_des_protéines_par_spectrométrie_de_masse/Séquençage_des_protéines_par_spectrométrie_de_masse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9quen%C3%A7age_des_prot%C3%A9ines_par_spectrom%C3%A9trie_de_masse</t>
+          <t>Séquençage_des_protéines_par_spectrométrie_de_masse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le séquençage des protéines par spectrométrie de masse est une technique qui permet le séquençage des protéines par spectrométrie de masse surtout en tandem MS/MS. Elle permet de déterminer la séquence des peptides sur quelques dizaines d'acides aminés. Couplé avec des techniques de digestion (enzymatiques ou chimiques) et avec des techniques de séparation (chromatographie en phase liquide à haute performance par exemple), il est possible de caractériser une protéine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9quen%C3%A7age_des_prot%C3%A9ines_par_spectrom%C3%A9trie_de_masse</t>
+          <t>Séquençage_des_protéines_par_spectrométrie_de_masse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Principe de la fragmentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La fragmentation est le processus permettant de séparer chaque acide aminé d'un peptide. Pour des raisons de stabilité des liaisons, les séquences polypeptidiques se clivent préférentiellement au niveau des liaisons peptidiques. Il existe cependant des mécanismes complexes qui produisent d'autres types ruptures de liaison, ce qui peut rendre difficile la lecture des spectres de masses et la détermination de la séquence.
 Spectrométrie de masse MS/MS
@@ -547,7 +561,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%A9quen%C3%A7age_des_prot%C3%A9ines_par_spectrom%C3%A9trie_de_masse</t>
+          <t>Séquençage_des_protéines_par_spectrométrie_de_masse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -565,12 +579,52 @@
           <t>Série de fragmentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">M = M(n AA) + M(H) + M(OH)
-Fragmentation au niveau de la liaison peptidique
-Fragmentation d'une seule liaison
-Fragmentation N terminale
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Séquençage_des_protéines_par_spectrométrie_de_masse</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9quen%C3%A7age_des_prot%C3%A9ines_par_spectrom%C3%A9trie_de_masse</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Série de fragmentation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fragmentation au niveau de la liaison peptidique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Fragmentation d'une seule liaison</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fragmentation N terminale
 Série d'ions a
 La fragmentation de la série a produit des ions aldimines :
 M = M(n AA) + M(H) - M(CO)
@@ -652,8 +706,47 @@
 La fragmentation de la série z produit des carbocations :
 M = M(n AA) - M(NH) + M(OH)
   = M(n AA) + 2
-Fragmentation de deux liaisons
-Ion de fragmentation interne
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Séquençage_des_protéines_par_spectrométrie_de_masse</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9quen%C3%A7age_des_prot%C3%A9ines_par_spectrom%C3%A9trie_de_masse</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Série de fragmentation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fragmentation au niveau de la liaison peptidique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Fragmentation de deux liaisons</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ion de fragmentation interne
 Ces ions correspondent au clivage de deux liaisons peptidiques. Ces clivages correspondent en général à des fragmentations de types b et y et forment des ions amino-acylium :
 M = M(n AA) + M(2H)
   = M(n AA) + 2
@@ -665,8 +758,43 @@
 M = M(AA) + M(H) - M(CO)
   = M(AA) - 27
 Les ions immoniums apparaissent dans un spectre MS/MS à des masses inférieurs à 200 Da. Ils permettent de connaître la composition en acide aminé du peptide fragmenté.
-Fragmentation des chaînes latérales
-Série d'ions d
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Séquençage_des_protéines_par_spectrométrie_de_masse</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9quen%C3%A7age_des_prot%C3%A9ines_par_spectrom%C3%A9trie_de_masse</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Série de fragmentation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fragmentation des chaînes latérales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Série d'ions d
 Un ion de la série d est formé par la perte d'une partie de la chaîne latérale de l'acide aminé C terminal d'un ion de la série a.
 M = M(AA) + M(H) - M(CO) - M(Rperdu)
   = M(AA) - 27 - M(Rperdu)
@@ -682,31 +810,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>S%C3%A9quen%C3%A7age_des_prot%C3%A9ines_par_spectrom%C3%A9trie_de_masse</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Séquençage_des_protéines_par_spectrométrie_de_masse</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Biochimie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/S%C3%A9quen%C3%A7age_des_prot%C3%A9ines_par_spectrom%C3%A9trie_de_masse</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Liste des modifications des protéines</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Delta Mass
 RESID Database
